--- a/Glioblastoma_Subgraph/Top_Candidate_Reference_List.xlsx
+++ b/Glioblastoma_Subgraph/Top_Candidate_Reference_List.xlsx
@@ -560,7 +560,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>11691</t>
+      <t>3282</t>
     </r>
     <r>
       <rPr>
@@ -579,7 +579,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>11692, 11691, 22154, 922723, 1292100, 1436426, 34898, 480769, 4899870, 829215, 2463523, 5032923, 5566674, 2698924, 5395804, 6172523, 3358887, 6172428, 5691728, 4634323</t>
+      <t>3282, 1294211, 187908, 1295991, 804232, 4678795, 10254, 4899860, 206585, 907414, 192159, 911099, 4899874, 21027, 5544100, 789926, 851752, 5291, 5292, 1629229, 779949, 1161007, 933936, 812337, 165554, 913455, 211382, 164535, 99768, 938422, 4820024, 1784120, 478779, 1279163, 23485, 35639, 1440064, 32193, 4609342, 49091, 971204, 893382, 789960, 902217, 858953, 79307, 5234382, 4909394, 984019, 182355, 3283, 794070, 47831, 933464, 480729, 5395800, 858971, 1323001, 5182430, 1599071, 3447264, 788834, 192100, 1438331, 900712, 2200937, 860138, 816744, 578031, 876271, 5691504, 1423863, 6172665, 782203, 5234300, 792811, 5083865, 49543, 5915578, 39138, 629162, 5218365, 5234452, 5623036, 5868108, 48516, 5569968, 1574222, 1160448, 2085860</t>
     </r>
   </si>
   <si>
@@ -590,73 +590,35 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">Disease/Condition: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Progressive Myoclonus Epilepsy (Types 2; 2A; 2B); Lafora Disease</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-Gene: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>NHLRC1/EPM2B (synonyms); EPM2/EPM2A (Isoform A and Isoform B)/MELF (synonyms)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-Protein:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Laforin</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-Drug: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Metformin</t>
+      <t xml:space="preserve">Diseases/Conditions: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Juvenile Absence Epilepsy; Absence Epilepsy/Petit Mal Epilepsy/Absence Seizure Disorder; Akinetic Petit Mal Epilepsy; Pykno Epilepsy; Action Myoclonus Renal Failure Syndrome; Dentatorubral-Pallidoluysian Atrophies; Atypical Inclusion Body Disease; Biotin Responsive Encephalopathy; May White Syndrome</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Genes: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>CSTB/STFB/CST6/PME/Cystatin B/Stefin B/EPM1 (synonyms); GABRA1/EJM (synonyms); ECA1</t>
     </r>
   </si>
   <si>
@@ -666,13 +628,13 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3570504/#:~:text=Metformin%2C%20a%20first%2Dline%20drug,isolated%20from%20four%20human%20glioblastomas.
-https://pubmed.ncbi.nlm.nih.gov/24750786/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/34975495/
+https://pubmed.ncbi.nlm.nih.gov/19183850/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -692,12 +654,29 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/35008275/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/35832394</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://pubmed.ncbi.nlm.nih.gov/33340293/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -709,12 +688,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/33372258/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/34067180/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -726,12 +705,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/33059952/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/35626148/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -743,12 +722,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/31863651/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/22470130/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -760,12 +739,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/30980539/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/16885346/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -777,12 +756,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/27377891/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/12655603/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -794,12 +773,12 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/33402483/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+      <t>https://pubmed.ncbi.nlm.nih.gov/25356585/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t xml:space="preserve"> 
@@ -811,23 +790,6 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://pubmed.ncbi.nlm.nih.gov/30046513/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov</t>
     </r>
     <r>
@@ -836,7 +798,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t xml:space="preserve">/27163626/ </t>
+      <t xml:space="preserve">/19434518/ </t>
     </r>
   </si>
   <si>
@@ -2061,7 +2023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2113,11 +2075,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2188,7 +2145,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2225,10 +2182,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2255,13 +2209,10 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2270,7 +2221,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2597,10 +2548,10 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -2612,29 +2563,29 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2665,72 +2616,72 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -2739,38 +2690,38 @@
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2801,56 +2752,56 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -2869,598 +2820,598 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
     </row>
     <row r="17">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
     </row>
     <row r="18">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
     </row>
     <row r="20">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
     </row>
     <row r="21">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
     <row r="23">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
     </row>
     <row r="27">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
     </row>
     <row r="28">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
     </row>
     <row r="30">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
     </row>
     <row r="31">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
     </row>
     <row r="32">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
     <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" location=":~:text=Metformin%2C%20a%20first%2Dline%20drug,isolated%20from%20four%20human%20glioblastomas." ref="C4"/>
+    <hyperlink r:id="rId3" ref="C4"/>
     <hyperlink r:id="rId4" ref="C5"/>
     <hyperlink r:id="rId5" ref="C6"/>
     <hyperlink r:id="rId6" ref="C7"/>

--- a/Glioblastoma_Subgraph/Top_Candidate_Reference_List.xlsx
+++ b/Glioblastoma_Subgraph/Top_Candidate_Reference_List.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinmcgowan/Desktop/drug_rep/Glioblastoma_Subgraph/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359265F7-606D-6D4A-AB3A-155E5DA3B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -24,38 +33,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>7745</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>230273, 1710726, 1257224, 16649, 1110028, 1306892, 5891084, 22797, 6163344, 1480721, 1223060, 11924, 859286, 216087, 598911, 5031453, 1369630, 5604895, 1069217, 215971, 23591, 1338409, 933161, 74793, 4666798, 4988334, 1402798, 215089, 46642, 888242, 153270, 836919, 7745, 7746, 890435, 216900, 1225670, 38599, 4722377, 5396558, 215632, 2731729, 1681235, 41942, 4616662, 988892, 813660, 1372126, 400350, 66785, 133857, 3415012, 1450598, 1457383, 1314024, 1130342, 4674410, 1681259, 359655, 3475565, 2412270, 9841, 1457265, 5835249, 1313908, 26617, 878715, 5452669, 3367807, 4626967, 4628107, 3443655, 4623565, 3373652, 26312, 13427</t>
     </r>
@@ -63,78 +70,74 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">X-linked Adrenoleukodystrophy; Adrenomyeloneuropathy; Addison’s Disease; Leukodystrophies; Diffuse Cerebral Sclerosis of Schilder; Peroxisomal Disorders; Adrenocortical Hypofunction; ACYL-COA Oxidase Deficiency; Canavan Disease
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">ABCD1 WT Allele (ATP Binding Cassette Subfamily D Member 1) ; ABC42; AMN; ACOX1; ECK2921/JW2892/FBA/FDA/FBAA/ALD (all synonyms); ECK1408/JW1412 (synonyms)
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Proteins: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>ADLP</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Compounds: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>VK-0214 (drug to treat X-ALD); Propanoic Acid; 2,2-DIMETHYL-,1,1'-[[[[4-[[4-HYDROXY-3-(PHENYLMETHYL)PHENYL]METHYL]-3,5-DIMETHYLPHENOXY]METHYL]PHOSPHINYLIDENE]BIS(OXYMETHYLENE)] ESTER; Ethylenediamine; Generation 4 Hydroxyl-Terminated Polyamidoamine Dendrimer Containing an Ethylene Diamene (EDA) Core, Amidoamine Repate Units, and 64 Hydroxyl End Groups (SMP:00516)</t>
     </r>
@@ -142,290 +145,290 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3466696/
 https://pubmed.ncbi.nlm.nih.gov/32703610/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/18470630</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35594221</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 https://pubmed.ncbi.nlm.nih.gov/3056568</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ACOX1)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/10779693</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 https://pubmed.ncbi.nlm.nih.gov/8759039</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 https://pubmed.ncbi.nlm.nih.gov/2557315</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">6/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(Canava</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">n)
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/239968</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">00/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(Canav</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">an)
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35406</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">793/ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ACYL-COA)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/2312346</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>8/ (ABCD1)</t>
     </r>
@@ -433,38 +436,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>11196</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>22915, 4672259, 5450375, 11145, 11146, 5804683, 462751, 6171813, 2896170, 5151292, 5090505, 2454475, 986958, 5541460, 6017109, 9944, 9945, 2085217, 796389, 60013, 6171633, 1277298, 1422078, 4788863, 1271369, 1366422, 1416298, 51261, 1219850, 1288555, 1433036, 861142, 888090, 704943, 4673950, 2435756, 1182926, 212436, 4782110, 5058068, 5034493, 4899140, 3351597, 6171849, 5894911, 5613210, 5772376, 5442073, 24147, 2438053, 1086268, 3482613, 5946222], [1051138, 4667907, 5830664, 857609, 587788, 1064974, 2141713, 1100312, 365593, 81951, 1399842, 5393447, 2422825, 184880, 933942, 950326, 383552, 1191488, 733252, 847940, 49759, 819296, 4669025, 80993, 1189988, 4718184, 214120, 4718186, 4898926, 77945, 280700, 1053836, 937105, 83097, 160417, 33442, 18083, 3651747, 846507, 873136, 83122, 161459, 5035188, 783539, 1254070, 188597, 873146, 20669, 678082, 248515, 1730760, 42697, 1054923, 1350859, 203981, 210129, 991956, 678106, 873179, 807132, 44772, 795367, 4805355, 484078, 3413749, 814840, 2490106, 299775, 5965064, 210191, 130322, 4787484, 940830, 3363621, 902439, 4898088, 216364, 34107, 206140, 995652, 5978952, 32586, 4731723, 874830, 4821328, 190291, 989015, 4675928, 1211738, 843610, 1142618, 214375, 21351, 873328, 64891, 1627005, 874879, 6169475, 216463, 69539, 1481125, 5057958, 4720039, 1358762, 26027, 4898732, 99758, 869809, 1099698, 4680117, 854457, 969147, 11196, 11197, 206270, 4670912, 966594, 808387, 1338821, 206283, 216013, 4670940, 18397, 2474462, 18396, 982500, 5427689, 869366, 204280, 19452, 19453, 948628, 5033929, 5394519, 6168860, 5795447, 5410177, 25865, 14428</t>
     </r>
@@ -472,38 +473,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ataxias; Choreas (including Sydenham Chorea; Chorea Minor; Rheumatic Chorea; Hereditary Chorea; Chorea Disorders/Syndromes; Chronic Progressive Chorea; Senile Chorea; Choreiform Movements); Dyskinesias (including Paroxysmal); Dyssynergia; Dystonias; Ballismus; Hemiballism); Torticollis; Rubral Tremor; Brain Degeneration; Central Nervous System Degenerative Disorder; Cerebellar Dysmetria; Segawa Syndrome</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>SETX/SCAR1/AOA2/KIAA0625/ALS4/BA479K20.2 (synonyms); WASF1/WAVE1/WASP Family Protein Member 1 (synonyms); GCH1</t>
     </r>
@@ -511,34 +510,38 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/29409010/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (GCH1)
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/11704826/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (WASF1)</t>
     </r>
@@ -546,38 +549,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3282</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3282, 1294211, 187908, 1295991, 804232, 4678795, 10254, 4899860, 206585, 907414, 192159, 911099, 4899874, 21027, 5544100, 789926, 851752, 5291, 5292, 1629229, 779949, 1161007, 933936, 812337, 165554, 913455, 211382, 164535, 99768, 938422, 4820024, 1784120, 478779, 1279163, 23485, 35639, 1440064, 32193, 4609342, 49091, 971204, 893382, 789960, 902217, 858953, 79307, 5234382, 4909394, 984019, 182355, 3283, 794070, 47831, 933464, 480729, 5395800, 858971, 1323001, 5182430, 1599071, 3447264, 788834, 192100, 1438331, 900712, 2200937, 860138, 816744, 578031, 876271, 5691504, 1423863, 6172665, 782203, 5234300, 792811, 5083865, 49543, 5915578, 39138, 629162, 5218365, 5234452, 5623036, 5868108, 48516, 5569968, 1574222, 1160448, 2085860</t>
     </r>
@@ -585,38 +586,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Juvenile Absence Epilepsy; Absence Epilepsy/Petit Mal Epilepsy/Absence Seizure Disorder; Akinetic Petit Mal Epilepsy; Pykno Epilepsy; Action Myoclonus Renal Failure Syndrome; Dentatorubral-Pallidoluysian Atrophies; Atypical Inclusion Body Disease; Biotin Responsive Encephalopathy; May White Syndrome</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>CSTB/STFB/CST6/PME/Cystatin B/Stefin B/EPM1 (synonyms); GABRA1/EJM (synonyms); ECA1</t>
     </r>
@@ -624,179 +623,200 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/34975495/
 https://pubmed.ncbi.nlm.nih.gov/19183850/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35832394</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">/
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/33340293/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/34067180/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35626148/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/22470130/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/16885346/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/12655603/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/25356585/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">/19434518/ </t>
     </r>
@@ -804,38 +824,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>6002</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1018371, 1325590, 4625952, 3397675, 4628525, 1018417, 1468476, 1449023, 22079, 880723, 880729, 165474, 5134959, 20595, 215159, 4624508, 2566271, 7813, 7814, 2105991, 542347, 1462928, 4628123, 5600414, 51887, 1004215, 4629177, 4667577, 501947, 1305311, 995561, 530671, 37622, 4628227, 13574, 3425545, 1319689, 14609, 4630844, 4630846, 4630848, 2223425, 4630850, 4630852, 4630854, 4630856, 4630858, 4630860, 4630862, 4630864, 4630866, 4630868, 4630870, 4630872, 4630874, 4630876, 4630878, 4623711, 4630880, 4630882, 942434, 4630884, 4630886, 35688, 4630888, 4630890, 20331, 4630892, 4630894, 4630896, 4630898, 6003, 4630900, 5740405, 4630902, 6002, 4630904, 4630906, 4630908, 4630910, 4630912, 4630914, 4630916, 4630918, 4630920, 833418, 834955, 4630924, 4630922, 4630926, 4630928, 4630930, 4630932, 4630934, 4630936, 4667289, 4630938, 4630940, 4630942, 4630944, 4630946, 4630948, 4630950, 4630952, 4630954, 4630956, 4630958, 4630960, 4630962, 4630964, 4624822, 4630967, 4630969, 4630971, 6026173, 4630973, 4623807, 4630975, 4630977, 4630979, 2757572, 4630981, 2470852, 4630983, 4630985, 5034954, 4630987, 4630989, 4630991, 16336, 4630994, 16339, 4630996, 4630998, 16342, 4702680, 4631000, 4631002, 16345, 5044701, 5044705, 16354, 16357, 5393389, 6172668, 4371453, 6171701, 5833425, 5588938</t>
     </r>
@@ -843,77 +861,73 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Amyotrophic Lateral Sclerosis (ALS); Juvenile Amyotrophic Lateral Sclerosis 2; Juvenile Primary Lateral Sclerosis; Infantile-Onset Ascending Spastic Paralysis; Charcot Disease; Dementia with ALS; Anterior Horn Cell Disease; Motor Neuron Diseases; Acid-Labile Subunit Definiciency; Aran-Duchenne Muscular Atrophy; ALS-Polyglucosen Bodies
  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>SOD1/ALS1/IPOA/STAHP/hSod1/HEL-S-44/Homodimer (synonyms); ALS2/KIAA1563/IAHSP/ALSJ/PLSJ (synonyms); IGFALS</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Proteins: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Alsin; Ciliary Neurotrophic Factor; IGFBP</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Drugs/Treatments: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Mescasermin Rinfabate; Orgotein for injection, ALS; Clenbuterol (Spiropent); S-[+]-Apomorphine; IPLEX; ETR019 (Superoxide Dismutase, Gliadin); Valine; Riluzole Oral Soluble Film (ROSF); Antilymphocyte Serum (Antilymphocyte Globulin); Tegoprubart (AT-1501); Toralizumab; Humanized Anti-CD40LG IGG1, Kappa Monoclonal Antibody with Heavy Chain C220S/C226S/C229S/P238S Substitutions to Attenuate Effector Function; Rocephin (Ceftriaxone Sodium); Isoleucine; Copaxone Protirelin Injection, GM-603 (Glatiramer Acetate); Ozanezumab; DIACETYL(N(4)-METHYLTHIOSEMICARBAZONATO) COPPER (II); Telbermin; Branched Chain Amino Acids; Anti-Nogo-A Monoclonal Antibody; Cannabidiol; DELTA-9-TETRAHYDROCANNABINOL (THC); Pterostilbene; EPI-589; Threostat; Neurontin (Gabapentin); Mescamerin; Rilutek (Riluzole); Nicotinamide and Pterostilbene; Oxaloacetic Acid; L-Threonine; LSP-GR3 (2'-O-METHYL PHOSPHOROTHIOATE 5'-GCUAGGUUUACGGGACCUCU-3'); Smilagenin; Cogane; Teglutik; Olesoxime; Nuedexta (Dextromethorphan Hydrobromide/Quinidine Sulfate); Oxime; 4-CHOLEST-EN-3-ONE; Noscapine; Acthar Gel (Repository Corticortropin Injection); Oligopeptide Containing 6 Amino Acids; Levosimedan; Sarsasapogenin; Talampanel; HYDROCINNAMATE-[ORN-PRO-DCHA-TRP-ARG](CH3COO); DL-3-N-BUTYLPHTHALIDE; Cyclosporin (Mitogard); Arimoclomol; BIS-CHOLINE TETRATHIOMOLYBDATE; SODIUM CHLORITE; Tirasemtiv; Leucine; Ibudilast; Creatine; Creapure; SODIUM PHENYLBUTYRATE; TAUROURSODEOXYCHOLIC ACID DIHYDRATE; Filgrastim; LACTOBACILLUS PLANTARUM; Edaravone; Dexpramipexole; Procysteine; Masitinib Mesylate; AEOL-10150; HER-902; TAUROURSODEOXYCHOLIC ACID DIHYDRATE; NI-204; AUTOLOGOUS ADIPOSE DERIVED MESENCHYMAL STROMAL CELLS; MONONUCLEAR ENRICHED FRACTION OF HUMAN UMBILICAL CORD BLOOD; ELECTROKINETICALLY ALTERED SALINE SOLUTION WITH AN ELEVATED DISSOLVED OXYGEN CONCENTRATION; Enzumestrocel; U-CORD-CELL(R); ANTISENSE OLIGONUCLEOTIDE INHIBITOR OF THE EXPRESSION OF SUPEROXIDE DISMUTASE 1 GENE; ALLOGENEIC MOTOR NEURON PROGENITOR CELLS DERIVED FROM HUMAN EMBRYONIC STEM CELLS;  DNA PLASMID VECTOR (PCK-HGFX7) EXPRESSING HUMAN HEPATOCYTE GROWTH FACTOR; NurOwn; Hsp70; HUTC; MESENCHYMAL STROMAL CELLS SECRETING NEUROTROPHIC FACTORS; CAPRINE HYPERIMMUNE SERUM AGAINST HIV LYSATE; NDX-Peptides; EX-VIVO EXPANDED AUTOLOGOUS BONE MARROW-DERIVED MESENCHYMAL STEM CELLS; RECOMBINANT HUMAN ANTIBODY DIRECTED AGAINST HUMAN MISFOLDED SUPEROXIDE DISMUTASE 1; Phosphorothioate Oligonucleotide; AUTOLOGOUS OLFACTORY NEURAL PROGENITORS
 </t>
@@ -922,85 +936,95 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/31831863/
 https://pubmed.ncbi.nlm.nih.gov/164757/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/32598273/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/34713302/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/34918</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">964/ </t>
     </r>
@@ -1008,38 +1032,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Merged Node ID:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 12833</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">810115, 794756, 645510, 5031949, 4734990, 1483534, 22802, 31002, 5048731, 1419677, 12833, 12834, 1654564, 4676776, 6170409, 1341356, 47408, 554684, 2186301, 1387326, 1044543, 1274823, 762826, 29518, 782545, 5395668, 5693527, 1241179, 969571, 719461, 161894, 16231, 16230, 785642, 1051244, 5538034, 22771, 859005, 6173034, 5700992, 5482502 </t>
     </r>
@@ -1047,66 +1069,63 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Parkinson’s Disease (Primary Parkinsonism); Early-Onset Autosomal Recessive Parkinson Disease 15 (Pallido-Pyramidal Syndrome/Parkinsonian-Pyramidal Syndrome/PKPS); Perry Syndrome; Distal Hereditary Motor Neuropathy Type VIIB; Susceptibility to Amyotrophic Lateral Sclerosis (ALS)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Gene: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>FBXO7/FBX7/FBX (synonyms); DCTN1/P150(GLUED), DROSOPHILA, HOMOLOG OF; GBA; LRRK2/PARK8 (synonyms); PARK7; PINK1/PARK6 (synonyms); PRKN/PARK2 (synonyms); SNCA/PARK1/PARK4 (synonyms); UCHL1/PARK5 (synonyms)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Drug: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>MPTP (not a treatment, causes permanent symptoms of Parkinson’s Disease)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1115,76 +1134,85 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/32973662/
 https://pubmed.ncbi.nlm.nih.gov/33328891/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/32703610</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/27957650/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (?)</t>
     </r>
@@ -1192,36 +1220,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">13849
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>13850, 13849, 56496, 825358, 1260151, 1405572, 5040462, 396327, 983223, 3380208, 6167517, 5798447, 5514311, 5179003</t>
     </r>
@@ -1229,55 +1257,55 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Diseases/Conditions:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Spastic Paraplegia 10, Autosomal Dominant; Hereditary Spastic Paraplegia Caused by Mutation in KIF5A; Susceptibility to Amyotrophic Lateral Sclerosis 25; Neonatal Myoclonus, Intractable   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Gene: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">KIF5A/MY050/NKHC/D12S1889 (synonyms)
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 Protein:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Kinesin, Heavy Chain, Neuron-Specific</t>
     </r>
@@ -1285,68 +1313,68 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/33718116/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35509569/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/2989721/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35929116/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1354,38 +1382,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>16872</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>16873, 16872, 56907, 22592, 833404, 1445411, 1301610, 940167, 473439, 5035076, 5395400, 6167573, 5834550, 5582044</t>
     </r>
@@ -1393,57 +1419,54 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ferritin-related Neurodegeneration; Neurodegeneration with Brain Iron Accumulation 3 (NBIA3); Neuroferritinopathy; Hereditary Ferritinopathy; Adult-Onset Basal Ganglia Disease; Hyperferritinemia with or without Cataract; L-Ferritin Deficiency</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Gene:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> FTL/LFTD/NBIA3 (synonyms)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Protein: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ferritin Light Chain</t>
     </r>
@@ -1451,9 +1474,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9066768/
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6316788/
@@ -1461,128 +1485,143 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 https://pubmed.ncbi.nlm.nih.gov/26871431</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">/ 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/29592883/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/32677981/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/28837569/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35351965/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/33421769/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">23029420/ </t>
     </r>
@@ -1590,38 +1629,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>6256</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>46880, 1455066, 792325, 5081414, 1432168, 738282, 1311595, 205615, 6256, 6257, 22738, 23059, 783095, 7609, 323546, 1287676, 1134704, 2177390, 4678413, 5558898, 5995004</t>
     </r>
@@ -1629,57 +1666,54 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Rett Syndrome (Cerebroatrophic Hyperammonemia); Atypical Rett Syndrome; Rett Syndrome, Preserved Speech Variant; Rett Syndrome, Zappella Variant; Severe Neonatal Encephalopathy due to MECP2 Mutation; Syndromic X-Linked Intellectual Developmental Disorder 13 (MRXS13); Syndromic X-Linked Intellectual Developmental Disorder Lubs Type (MRXSL); MECP2-related Disorders; Susceptibility to X-Linked Autism 3 (AUTSX3); Autism, Dementia, Ataxia, and Loss of Purposeful Hand Use; PPM-X Syndrome</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Gene: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>MECP2/PPMX/RTS/RTT/MRX16/MRX79 (synonyms); MRXSL</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Protein: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Methyl-CPG-Binding Protein 2</t>
     </r>
@@ -1687,93 +1721,104 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/12881707/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/19116135/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/27843499/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/32913504/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/35059</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">903/ </t>
     </r>
@@ -1781,38 +1826,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>10251</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>10252, 10251, 1329368, 1472073, 49329, 22532, 991403, 5019102, 406513, 821564, 160360, 2185413, 1158752, 957896, 852950, 301476, 4675674, 49282, 3361042, 5395963, 6172003, 5776472, 5634871, 6161839</t>
     </r>
@@ -1820,38 +1863,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Myoclonus Dystonia/Dystonia 11; Alcohol-Responsive Dystonia; Drug-Induced Myoclonus; Myoclonus-Dystonia Syndrome caused by mutation in SGCE; Palatal/Oculopalatal Myoclonus; Upper/Lower Extremity Myoclonus; Eyelid Myoclonus; Intention Myoclonus; Nocturnal/Sleep Myoclonus; Segmental Myoclonus; Myoclonus Simplex; Polymyoclonus</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">SGCE/ESG/Sarcoglycan Epsilon (synonyms) </t>
     </r>
@@ -1862,38 +1903,36 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Merged Node ID: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1748</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Original Node IDs: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>5516545, 16132, 6168965, 20998, 1065861, 4899592, 16133, 1258380, 23821, 2437775, 3415187, 966938, 1406875, 5775778, 1261475, 706988, 5335213, 846127, 1403951, 6150710, 5547706, 5770697, 5090131, 1748, 1749, 1966296, 60127, 476772, 5262054, 40937, 5393643, 4630008, 4630010, 21000, 815356, 431006, 5022896, 3355005, 6170318, 5915552, 5510925, 23823</t>
     </r>
@@ -1901,57 +1940,54 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Diseases/Conditions: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>CADASIL Syndrome; CADASIL 1; CARASIL Syndrome; IMF2; Brain Small Vessel Disease (with Axenfeld-Rieger Anomaly; With Hemorrhage; With or Without Ocular Anomalies; COL4A1-related With Hemorrhage); Autosomal Dominant Retinal Arteriolar Tortuosity, Infantile Hemiparesis, Leukoencephalopathy Syndrome (including COL4A1-related; With Axenfeld-Rieger Anomaly); Age-related Macular Degeneration; Familial Vascular Leukoencephalopathy (including COL4A1-related); Leukoencephalopathy with Axenfeld-Rieger Anomaly</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Genes: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>NOTCH3/CASIL/CADASIL/CADASIL1/LMNS/IMF2 (synonyms); NOTCH3 WT Allele; COL4A1/BSVD/BSVD1/RATOR/PADMAL (synonyms); HTRA1/PRSS11/ARMD7/CARASIL/L56/ORF480 (synonyms)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Drugs/Compounds: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Cerebrolysin (Peptide Fraction Derived from Porcine Brain Protein); Palm Tocotrienol Complex</t>
     </r>
@@ -1959,61 +1995,68 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S030384672200097X
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.genengnews.com/news/glioblastoma-linked-with-brain-healing-after-trauma/#:~:text=The%20results%20of%20studies%20by,injury%20are%20derailed%20by%20mutations.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3797092</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 https://www.nature.com/articles/s41439-021-00150-</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">0
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://pubmed.ncbi.nlm.nih.gov/25515603/</t>
     </r>
@@ -2022,75 +2065,99 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2098,7 +2165,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2126,7 +2193,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2140,104 +2213,87 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2427,25 +2483,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.13"/>
-    <col customWidth="1" min="2" max="2" width="90.88"/>
-    <col customWidth="1" min="3" max="3" width="64.25"/>
+    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2540,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="210" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2574,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2608,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="225" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2642,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -2615,7 +2676,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="165" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2710,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="90" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -2659,31 +2720,31 @@
       <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="105" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2778,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="150" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -2751,14 +2812,14 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="90" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="17"/>
@@ -2785,23 +2846,23 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="195" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -2819,607 +2880,607 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
     </row>
-    <row r="13">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
     </row>
-    <row r="14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
     </row>
-    <row r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
     </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
     </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
     </row>
-    <row r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
     </row>
-    <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
     </row>
-    <row r="20">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
     </row>
-    <row r="21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
     </row>
-    <row r="22">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
     </row>
-    <row r="23">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
     </row>
-    <row r="24">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
     </row>
-    <row r="25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
     </row>
-    <row r="26">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
     </row>
-    <row r="27">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
     </row>
-    <row r="28">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
     </row>
-    <row r="29">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
     </row>
-    <row r="30">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
     </row>
-    <row r="31">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
     </row>
-    <row r="32">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>